--- a/data/trans_bre/P2A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>12.20004067892989</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.795316503383919</v>
+        <v>6.795316503383908</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2111035090776205</v>
@@ -649,7 +649,7 @@
         <v>0.2153077813713138</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.113276444059267</v>
+        <v>0.1132764440592667</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5035382844199268</v>
+        <v>0.9480424437535641</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.917357885591562</v>
+        <v>9.900532581431158</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.171609593474692</v>
+        <v>3.682008869245383</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.07974360272164965</v>
+        <v>-0.3252612536342375</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.009877083310106973</v>
+        <v>0.02056266196615621</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1387954988066737</v>
+        <v>0.1492840844672544</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07036728645037552</v>
+        <v>0.0580860983838026</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.001385370891432309</v>
+        <v>-0.004733844537764977</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.06909600044364</v>
+        <v>18.75745946023907</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>24.3034251527702</v>
+        <v>24.62893219252669</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.68095807896443</v>
+        <v>20.01218846069256</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.94141525165332</v>
+        <v>14.11795808201734</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4689287835813022</v>
+        <v>0.4966022279964169</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4302170349278122</v>
+        <v>0.4348425903561527</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3758331989259637</v>
+        <v>0.3888655923781374</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2528403745722523</v>
+        <v>0.2560424310962218</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>13.55974797125566</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.381580857891105</v>
+        <v>5.3815808578911</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4013291905623055</v>
@@ -749,7 +749,7 @@
         <v>0.2357177456918914</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1354694456885038</v>
+        <v>0.1354694456885036</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>12.24277789132442</v>
+        <v>13.0858597352832</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>11.21954193814106</v>
+        <v>11.18696311825163</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.56703070785759</v>
+        <v>8.073409928406965</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.22642170102599</v>
+        <v>-1.212860683914206</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2476081827228158</v>
+        <v>0.2632299740738545</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2056405280235006</v>
+        <v>0.1996493173134022</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1257943939573293</v>
+        <v>0.134831671286619</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02822177170810477</v>
+        <v>-0.02679774351880194</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>24.80204343874196</v>
+        <v>25.53434031032065</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>23.73966372862726</v>
+        <v>23.27236013127054</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19.51884648853878</v>
+        <v>19.86819597246803</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.69111431993993</v>
+        <v>12.20681704614025</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5808131378228778</v>
+        <v>0.5898815267747028</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4891820359856826</v>
+        <v>0.4721050962577492</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3655516782799669</v>
+        <v>0.3736519200641329</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3200060585289563</v>
+        <v>0.3399136869184322</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>8.864503140839419</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.540706932042314</v>
+        <v>2.540706932042325</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5241388865601926</v>
@@ -849,7 +849,7 @@
         <v>0.1680236409174884</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.05262468956113184</v>
+        <v>0.05262468956113207</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>15.58545701098718</v>
+        <v>15.52730098646437</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.658596577240754</v>
+        <v>1.55603180868346</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5369663616172085</v>
+        <v>1.467541262589506</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.287125340007448</v>
+        <v>-3.944226479968881</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3181860411082399</v>
+        <v>0.3194860749381034</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02879911299817862</v>
+        <v>0.02461766484283542</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01043583943992019</v>
+        <v>0.02356228534893136</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.08163416546269613</v>
+        <v>-0.07623824268554137</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>30.75773133462799</v>
+        <v>30.51667251446456</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.6386312969011</v>
+        <v>16.7189212065095</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.50268299723443</v>
+        <v>16.15248597661548</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.718476706735833</v>
+        <v>10.17446398721976</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.777994069025062</v>
+        <v>0.7699598924425223</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3037066870492371</v>
+        <v>0.3033765283839746</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3203803973127866</v>
+        <v>0.3338556941735585</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2204158250568798</v>
+        <v>0.23438223837318</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.59620347286934</v>
+        <v>10.70731086941804</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.419698637586198</v>
+        <v>5.210854794320713</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.234242693992776</v>
+        <v>6.440598926976031</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.296965279336622</v>
+        <v>-1.404307324858077</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1923406215156043</v>
+        <v>0.1915245964615028</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07368378295989991</v>
+        <v>0.08289067464176877</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08394945473683869</v>
+        <v>0.1021413974226598</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.01859144447732345</v>
+        <v>-0.03016442661448439</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>25.00600853836632</v>
+        <v>24.33762096742672</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>18.52013428602645</v>
+        <v>19.21862307326091</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19.7578203820624</v>
+        <v>19.81572710307825</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14.40051627709613</v>
+        <v>15.08784574078854</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5312579928682893</v>
+        <v>0.5134620481101597</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3308392881045724</v>
+        <v>0.347553916101117</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3690274318809508</v>
+        <v>0.3700676200561353</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3720621356620839</v>
+        <v>0.3872143479524606</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.218682425797558</v>
+        <v>6.471647974935451</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.64265055098515</v>
+        <v>16.81371353988549</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.881121802708034</v>
+        <v>2.441063356747144</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3192633037743339</v>
+        <v>0.3327999751142486</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1153197246030075</v>
+        <v>0.1206681085581984</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2661287685436371</v>
+        <v>0.2758032786524122</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04844257440506888</v>
+        <v>0.04380065379900318</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.02252072429906227</v>
+        <v>0.007824736459942666</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>25.04017606435993</v>
+        <v>26.92952363836948</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>33.99971942378946</v>
+        <v>35.0518575226325</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21.41801686635205</v>
+        <v>19.97035878001138</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.02977871293086</v>
+        <v>10.91251022059407</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5780865564915659</v>
+        <v>0.6027956958035576</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6789627527853719</v>
+        <v>0.6985174151406648</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4504396091801136</v>
+        <v>0.4260573204829856</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.215032743088062</v>
+        <v>1.173385989444864</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>12.46481542264553</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.5396113950182357</v>
+        <v>-0.539611395018269</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2694956343574364</v>
@@ -1149,7 +1149,7 @@
         <v>0.251735183152364</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.009406769500993952</v>
+        <v>-0.009406769500994533</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.057715972629817</v>
+        <v>5.416686624606145</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.122079201078837</v>
+        <v>6.602557524256617</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.560490199088446</v>
+        <v>4.054764435462146</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-7.736534207747285</v>
+        <v>-7.439913672581559</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1088029705266904</v>
+        <v>0.09622163995695515</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1078196620965285</v>
+        <v>0.1014771685651711</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07023098454756246</v>
+        <v>0.07900129046779132</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1255843791344659</v>
+        <v>-0.1205621899260326</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>21.94602098521234</v>
+        <v>23.1594709674325</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.73339677781652</v>
+        <v>22.55524423311119</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20.11443963099416</v>
+        <v>20.33561244262965</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.879199385910054</v>
+        <v>6.486008158403546</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4675721192875793</v>
+        <v>0.5049768497934896</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3970698761711372</v>
+        <v>0.3979601977265983</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.452490406258007</v>
+        <v>0.4538030588196595</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1333422232609984</v>
+        <v>0.1210245563496108</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.34761957977726</v>
+        <v>10.15514277271379</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.215150288948378</v>
+        <v>4.962671146062552</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.388583814976115</v>
+        <v>6.200533583330066</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.078268691972995</v>
+        <v>1.972836208121817</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2139341143527885</v>
+        <v>0.2017465248971272</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08562192716973928</v>
+        <v>0.08010271641073211</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1352624518362169</v>
+        <v>0.1249427900778726</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.0559312918661501</v>
+        <v>0.05960949550019134</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>21.38625324164192</v>
+        <v>21.15709723533233</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.58262659402598</v>
+        <v>15.75804318377687</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.50471021417106</v>
+        <v>17.57399645332031</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.43933946532562</v>
+        <v>12.54099518228831</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5038208307009363</v>
+        <v>0.4990268435971387</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3035121554872477</v>
+        <v>0.2864035755680192</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4193920214161928</v>
+        <v>0.4226949879705169</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.4255661456054849</v>
+        <v>0.4290922890521858</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>9.916147761629968</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12.11609872069389</v>
+        <v>12.1160987206939</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2344708427098839</v>
@@ -1349,7 +1349,7 @@
         <v>0.1936058654037592</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.3718278669178046</v>
+        <v>0.3718278669178048</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.440980978129039</v>
+        <v>6.93417906754832</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>6.023477303209527</v>
+        <v>6.343389668986095</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.345811423907249</v>
+        <v>4.810277051170668</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.266258216945364</v>
+        <v>7.766364352993503</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1373183548024991</v>
+        <v>0.1278304427604701</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.119172333600071</v>
+        <v>0.1253872107042262</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07935272500166728</v>
+        <v>0.08982334070462422</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2001925234218944</v>
+        <v>0.2223148692094709</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>17.33970953197449</v>
+        <v>16.78963244737286</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>16.30876036978374</v>
+        <v>16.15908824062951</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14.90959560893087</v>
+        <v>14.94104584343669</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>16.57246506016388</v>
+        <v>17.17262581343423</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3620790061026737</v>
+        <v>0.3382950870891711</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3636035435784869</v>
+        <v>0.3594696839531148</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3054649975724521</v>
+        <v>0.3092326855992757</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5544883080499466</v>
+        <v>0.5770546106803128</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>11.51821420740736</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6.690028481940424</v>
+        <v>6.690028481940419</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3257058095555859</v>
@@ -1449,7 +1449,7 @@
         <v>0.2205579748728734</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.1690599174244742</v>
+        <v>0.1690599174244741</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>13.16139460562206</v>
+        <v>13.09675356709065</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>11.16224201342827</v>
+        <v>11.18381778181287</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9.122124008269882</v>
+        <v>9.389557044034008</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.3448506925273</v>
+        <v>4.228004049743769</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2666472428326803</v>
+        <v>0.2663817673726508</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1954888196026765</v>
+        <v>0.1968137673649316</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1702490914211436</v>
+        <v>0.1749809684107257</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.1052609961000524</v>
+        <v>0.1032457727068987</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>17.88869789836028</v>
+        <v>17.92544788151794</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.6611846969553</v>
+        <v>16.00776443195184</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13.9647070161437</v>
+        <v>13.95714138666214</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.91528508505772</v>
+        <v>9.010323541203334</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3831249424973286</v>
+        <v>0.383100304724415</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2869293908207215</v>
+        <v>0.296273160784856</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2734821446831717</v>
+        <v>0.2721966406274905</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.2337127981824041</v>
+        <v>0.2357250941146675</v>
       </c>
     </row>
     <row r="31">
